--- a/5-FuncoesMercadoTrabalho/17. Função SOMASES - Introdução - Material(1).xlsx
+++ b/5-FuncoesMercadoTrabalho/17. Função SOMASES - Introdução - Material(1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaof\Desktop\Excel Impressionador 2021\Módulo 8 - Funções Mercado de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cursos\excel\5-FuncoesMercadoTrabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAECBBD-176C-41BB-B8B9-C84A94C7F3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E037AAAC-6CB0-49CF-B313-2BC08C3FAF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{3D2557DA-CD0B-48AD-8EFD-8912689B8782}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{3D2557DA-CD0B-48AD-8EFD-8912689B8782}"/>
   </bookViews>
   <sheets>
     <sheet name="SOMASES" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="75">
   <si>
     <t>Contratação</t>
   </si>
@@ -302,7 +302,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +324,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -387,6 +399,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,9 +422,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -445,7 +462,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -551,7 +568,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -693,7 +710,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -703,17 +720,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37263547-D7E7-4AC6-B262-BC90CCAE7898}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" customWidth="1"/>
-    <col min="2" max="5" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -730,7 +750,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -743,11 +763,14 @@
       <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="15">
         <v>3000</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G2" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -763,8 +786,12 @@
       <c r="E3" s="3">
         <v>4000</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <f>SUMIFS(E:E, B:B, G2)</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -781,7 +808,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -797,8 +824,11 @@
       <c r="E5" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G5" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -814,8 +844,11 @@
       <c r="E6" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G6" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -831,8 +864,12 @@
       <c r="E7" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <f>SUMIFS(E:E, B:B, G5, D:D, G6)</f>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -845,11 +882,11 @@
       <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="15">
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -865,8 +902,11 @@
       <c r="E9" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G9" s="1">
+        <v>43101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -882,8 +922,12 @@
       <c r="E10" s="3">
         <v>4000</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <f>SUMIFS(E:E, C:C, "&gt;01/01/2018")</f>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -896,11 +940,11 @@
       <c r="D11" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="15">
         <v>6000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -917,7 +961,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -930,11 +974,11 @@
       <c r="D13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="15">
         <v>3000</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -951,10 +995,10 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H16" s="1"/>
     </row>
   </sheetData>
@@ -966,17 +1010,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FEF772-DFD0-4036-8B65-DBF82BF00CE4}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="2.6640625" customWidth="1"/>
+    <col min="1" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
     <col min="7" max="7" width="4" customWidth="1"/>
-    <col min="8" max="14" width="9.77734375" customWidth="1"/>
+    <col min="8" max="14" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -993,7 +1039,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1024,7 +1070,7 @@
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1041,7 +1087,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1057,9 +1103,12 @@
       <c r="E4" s="5">
         <v>1856</v>
       </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H4" s="7">
+        <f>SUMIFS(E:E, B:B, "China")</f>
+        <v>9236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1077,7 +1126,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1108,7 +1157,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1125,7 +1174,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1141,9 +1190,12 @@
       <c r="E8" s="5">
         <v>2391</v>
       </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H8" s="7">
+        <f>SUMIFS(E:E, B:B, "Alemanha", D:D, "Puma")</f>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1160,7 +1212,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1191,7 +1243,7 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1208,7 +1260,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1225,9 +1277,12 @@
         <v>1945</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H12" s="7">
+        <f>SUMIFS(E:E, C:C, "&gt;=01/01/2028", C:C, "&lt;=31/12/2029")</f>
+        <v>10606</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1245,7 +1300,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -1276,7 +1331,7 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1293,7 +1348,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1331,7 +1386,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1357,7 +1412,7 @@
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1383,7 +1438,7 @@
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1409,7 +1464,7 @@
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -1435,7 +1490,7 @@
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -1461,7 +1516,7 @@
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -1478,7 +1533,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1495,7 +1550,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -1512,7 +1567,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -1529,7 +1584,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -1546,7 +1601,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -1563,7 +1618,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -1580,7 +1635,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -1597,7 +1652,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -1614,7 +1669,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>54</v>
       </c>

--- a/5-FuncoesMercadoTrabalho/17. Função SOMASES - Introdução - Material(1).xlsx
+++ b/5-FuncoesMercadoTrabalho/17. Função SOMASES - Introdução - Material(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cursos\excel\5-FuncoesMercadoTrabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E037AAAC-6CB0-49CF-B313-2BC08C3FAF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC86FF7C-FEF1-40C9-94BF-D7DB5D4322AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{3D2557DA-CD0B-48AD-8EFD-8912689B8782}"/>
   </bookViews>
@@ -32,6 +32,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -1011,7 +1014,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
